--- a/nop-format/nop-ooxml/nop-ooxml-xlsx/src/test/resources/xlsx/test-all-charts.xlsx
+++ b/nop-format/nop-ooxml/nop-ooxml-xlsx/src/test/resources/xlsx/test-all-charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-format\nop-ooxml\nop-ooxml-xlsx\src\test\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67555516-81C7-4736-8566-F2DBC16F35C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EFAF63-CA05-4184-B9C5-EB65CD42A907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="7" xr2:uid="{8BFBDDB5-84AD-47C1-A4EB-72AD32762E3F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="12" activeTab="18" xr2:uid="{8BFBDDB5-84AD-47C1-A4EB-72AD32762E3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart_填充雷达图" sheetId="19" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="Chart_堆积柱形图" sheetId="4" r:id="rId16"/>
     <sheet name="Chart_簇状柱形图" sheetId="3" r:id="rId17"/>
     <sheet name="ChartData" sheetId="2" r:id="rId18"/>
+    <sheet name="ScatterChart" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4478,6 +4479,802 @@
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ABC</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>year2004</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ChartData!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>620</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DB1-41E0-A5F7-1FF8FBBE24E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>year2005</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ChartData!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3DB1-41E0-A5F7-1FF8FBBE24E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1199841455"/>
+        <c:axId val="1199839535"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1199841455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>XXX</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1199839535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1199839535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>YYY</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>题</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1199841455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -5963,6 +6760,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9B9A-4511-B586-52136F75B81B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -5978,6 +6780,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9B9A-4511-B586-52136F75B81B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -5993,6 +6800,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9B9A-4511-B586-52136F75B81B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -6008,6 +6820,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9B9A-4511-B586-52136F75B81B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -6023,6 +6840,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9B9A-4511-B586-52136F75B81B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -6274,6 +7096,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C056-4651-95C5-5AE81295224E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -6289,6 +7116,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C056-4651-95C5-5AE81295224E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -6304,6 +7136,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C056-4651-95C5-5AE81295224E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -6319,6 +7156,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-C056-4651-95C5-5AE81295224E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -6334,6 +7176,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-C056-4651-95C5-5AE81295224E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -8261,6 +9108,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -13129,6 +14016,508 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -17624,6 +19013,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDDB7F1-8EB2-42BB-BDA3-B348A03D743A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -18298,7 +19730,9 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P38" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -18497,6 +19931,22 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01D7479-B357-41FF-BBF7-61EE7F2B4685}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB4FD8F-32E5-4958-B543-7F12C3F77EFA}">
   <sheetPr codeName="Sheet18"/>
@@ -18532,7 +19982,9 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P37" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -18592,7 +20044,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
